--- a/Sufficient data/forecast_summary_B09SVZRM13.xlsx
+++ b/Sufficient data/forecast_summary_B09SVZRM13.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,20 +477,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -495,28 +502,33 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -530,32 +542,37 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -565,28 +582,33 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -600,32 +622,37 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -635,28 +662,33 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -670,32 +702,37 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
@@ -705,28 +742,33 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -740,32 +782,37 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -775,12 +822,15 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,11 +842,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -810,12 +862,15 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,15 +882,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
@@ -845,12 +902,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,11 +922,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -880,12 +942,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,15 +962,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -915,12 +982,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,11 +1002,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -950,12 +1022,15 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,15 +1042,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
@@ -985,12 +1062,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,11 +1082,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1020,12 +1102,15 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09SVZRM13.xlsx
+++ b/Sufficient data/forecast_summary_B09SVZRM13.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-22</t>
+          <t>2024-12-15</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09SVZRM13.xlsx
+++ b/Sufficient data/forecast_summary_B09SVZRM13.xlsx
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-12-15</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B09SVZRM13.xlsx
+++ b/Sufficient data/forecast_summary_B09SVZRM13.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,119 +438,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Week_Start_Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MyForecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast_XGB</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
+      <c r="A2" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I2" t="n">
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-12-22</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -543,79 +546,65 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-12-29</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -625,37 +614,29 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
-        </is>
-      </c>
+      <c r="A6" s="2" t="n">
+        <v>45669</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -665,37 +646,31 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I6" t="n">
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -705,37 +680,29 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I7" t="n">
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-01-26</t>
-        </is>
-      </c>
+      <c r="A8" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -745,37 +712,31 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I8" t="n">
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -785,37 +746,29 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I9" t="n">
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
+      <c r="A10" s="2" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -825,37 +778,31 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I10" t="n">
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -865,37 +812,29 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I11" t="n">
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
+      <c r="A12" s="2" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -905,37 +844,31 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -945,37 +878,29 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
+      <c r="A14" s="2" t="n">
+        <v>45725</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -985,37 +910,31 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I14" t="n">
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -1025,37 +944,29 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I15" t="n">
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
+      <c r="A16" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -1065,37 +976,31 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-03-30</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1105,212 +1010,11 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Historical Range</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-03-05 to 2024-12-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Min Sales</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Max Sales</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mean Sales</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Median Sales</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Std Dev Sales</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total Historical Sales</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>12 units</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Total Forecast (16 Weeks)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total Forecast (8 Weeks)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total Forecast (4 Weeks)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Max Forecast</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Max Forecast Week</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Min Forecast</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Min Forecast Week</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B09SVZRM13.xlsx
+++ b/Sufficient data/forecast_summary_B09SVZRM13.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,20 +17,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,173 +423,199 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ds</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MyForecast_XGB</t>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-12-22</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>B09SVZRM13</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45662</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -614,29 +625,37 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45669</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>W5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -646,31 +665,37 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45676</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>W6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -680,29 +705,37 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45683</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>W7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-01-26</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -712,31 +745,37 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45690</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>W8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -746,29 +785,37 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45697</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>W9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -778,31 +825,37 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45704</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -812,29 +865,37 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45711</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -844,31 +905,37 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45718</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -878,29 +945,37 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45725</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -910,31 +985,37 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45732</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -944,29 +1025,37 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45739</v>
-      </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -976,31 +1065,37 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45746</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>W16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1010,11 +1105,212 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Historical Range</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-03-05 to 2024-12-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Min Sales</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Max Sales</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mean Sales</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Median Sales</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Std Dev Sales</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total Historical Sales</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12 units</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total Forecast (16 Weeks)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total Forecast (8 Weeks)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Total Forecast (4 Weeks)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Max Forecast</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Max Forecast Week</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Min Forecast</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Min Forecast Week</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Sufficient data/forecast_summary_B09SVZRM13.xlsx
+++ b/Sufficient data/forecast_summary_B09SVZRM13.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,119 +438,109 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Week_Start_Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MyForecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast_XGB</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
+      <c r="A2" s="2" t="n">
+        <v>45557</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J2" t="b">
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-12-22</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45564</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -543,79 +548,65 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J3" t="b">
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-12-29</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="n">
+        <v>45571</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J4" t="b">
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-01-05</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45578</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -625,37 +616,31 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J5" t="b">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45585</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -665,37 +650,31 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J6" t="b">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -705,37 +684,31 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J7" t="b">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-01-26</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45599</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -745,37 +718,31 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J8" t="b">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45606</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -785,37 +752,31 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J9" t="b">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45613</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -825,37 +786,31 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J10" t="b">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45620</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -865,33 +820,29 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J11" t="b">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -905,36 +856,32 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J12" t="b">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -945,37 +892,31 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J13" t="b">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -985,37 +926,31 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -1025,37 +960,31 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J15" t="b">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>0</v>
       </c>
@@ -1065,37 +994,31 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-03-30</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45662</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>B09SVZRM13</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1105,212 +1028,11 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
-        </is>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Historical Range</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-03-05 to 2024-12-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Min Sales</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Max Sales</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mean Sales</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Median Sales</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Std Dev Sales</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total Historical Sales</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>12 units</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Total Forecast (16 Weeks)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Total Forecast (8 Weeks)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Total Forecast (4 Weeks)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Max Forecast</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Max Forecast Week</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Min Forecast</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Min Forecast Week</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2024-12-15</t>
-        </is>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
